--- a/public/upload/write.xlsx
+++ b/public/upload/write.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CKP-T" sheetId="1" r:id="rId4"/>
     <sheet name="CKP-R" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CKP-T'!$A$1:$H$35</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>CKP-T</t>
   </si>
@@ -45,7 +47,7 @@
     <t>Periode</t>
   </si>
   <si>
-    <t>: April 2020</t>
+    <t>: Juni 2020</t>
   </si>
   <si>
     <t>No</t>
@@ -93,25 +95,28 @@
     <t>UTAMA</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>ads</t>
+    <t>aasd</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>TAMBAHAN</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>JUMLAH</t>
   </si>
   <si>
     <t>Kesepakatan Target</t>
   </si>
   <si>
-    <t>Tanggal: April 2020</t>
+    <t>Tanggal: Juni 2020</t>
   </si>
   <si>
     <t>Pegawai Yang Dinilai</t>
@@ -171,7 +176,7 @@
     <t>Penilaian Kinerja</t>
   </si>
   <si>
-    <t>Tanggal: Mei 2020</t>
+    <t>Tanggal: Juli 2020</t>
   </si>
 </sst>
 </file>
@@ -334,6 +339,136 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="638175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="PhpSpreadsheet logo" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="PhpSpreadsheet logo" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="638175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="PhpSpreadsheet logo" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="PhpSpreadsheet logo" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,10 +761,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="20.1" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,11 +903,11 @@
         <v>25</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="5">
-        <v>1</v>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -783,50 +918,72 @@
         <v>2</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="24.95">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+    <row r="16" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A17" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:11" customHeight="1" ht="24.95">
       <c r="A18" s="5"/>
@@ -849,52 +1006,124 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8">
-        <f>SUM(G13:G17)</f>
+      <c r="C22" s="13"/>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8">
+        <f>SUM(G13:G20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="10" t="s">
+    <row r="28" spans="1:11">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="10" t="s">
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="11" t="s">
+    </row>
+    <row r="31" spans="1:11">
+      <c r="C31"/>
+      <c r="F31"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="11" t="s">
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -907,18 +1136,18 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:H35"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
@@ -926,12 +1155,17 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="75" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
     <oddFooter/>
@@ -940,6 +1174,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -948,9 +1183,9 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -971,12 +1206,12 @@
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="30">
       <c r="K1" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="24.95">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="17.1">
@@ -1024,12 +1259,12 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>14</v>
@@ -1047,13 +1282,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1084,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1116,11 +1351,11 @@
         <v>25</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>1</v>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
@@ -1134,14 +1369,14 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7"/>
@@ -1151,11 +1386,19 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="24.95">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1163,35 +1406,49 @@
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
+    <row r="16" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" customHeight="1" ht="24.95">
+      <c r="A17" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" customHeight="1" ht="24.95">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -1200,9 +1457,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4"/>
@@ -1218,94 +1475,181 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="8">
-        <f>SUM(J13:J17)</f>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="8">
+        <f>SUM(J13:J20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8" t="str">
-        <f>AVERAGE(G13:G17)</f>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8" t="str">
+        <f>AVERAGE(G13:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="8" t="str">
-        <f>AVERAGE(H13:H17)</f>
+      <c r="H26" s="8" t="str">
+        <f>AVERAGE(H13:H20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8" t="str">
-        <f>AVERAGE(G21:H21)</f>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8" t="str">
+        <f>AVERAGE(G26:H26)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="10" t="s">
+    <row r="30" spans="1:11">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="11" t="s">
+    </row>
+    <row r="33" spans="1:11">
+      <c r="C33"/>
+      <c r="I33"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="11" t="s">
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1320,37 +1664,41 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="G32:K32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:K37"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J26:J27"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="73" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
     <oddFooter/>
@@ -1359,5 +1707,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>